--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-31_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-31_valid.xlsx
@@ -31230,7 +31230,7 @@
         <v>720</v>
       </c>
       <c r="N95">
-        <v>720</v>
+        <v>755</v>
       </c>
       <c r="O95">
         <v>1468</v>
@@ -31344,7 +31344,7 @@
         <v>351.219512195122</v>
       </c>
       <c r="AZ95">
-        <v>440.8163265306122</v>
+        <v>462.2448979591837</v>
       </c>
       <c r="BA95">
         <v>889.6969696969697</v>
@@ -31458,7 +31458,7 @@
         <v>0.07572650112012116</v>
       </c>
       <c r="CL95">
-        <v>0.5186074429771909</v>
+        <v>0.5438175270108043</v>
       </c>
       <c r="CM95">
         <v>1.112121212121212</v>
@@ -31503,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="DA95">
-        <v>0.4916580616162635</v>
+        <v>0.4972858252501908</v>
       </c>
     </row>
     <row r="96" spans="1:105">
